--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹개발\Academic-management-PJ\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\웹개발\Academic-management-PJ\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972A6189-C188-4B34-BF92-8E389CBF947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>college(단과대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>college</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>student(학생)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,13 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>department(학과)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,14 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user(사용자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,31 +223,396 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manager(관리자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>std_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college_tb(단과대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_tb(학과)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_tb(사용자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_tb(학생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_tb(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_tb(강의실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_tb(강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mng_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일 및 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양/전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의계획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여(수강 정원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enroll_tb(수강신청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_tb</t>
+  </si>
+  <si>
+    <t>pk/fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_tb</t>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_details_tb(수강내역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_tb(등급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+, A0, A-, B+, B0, B-, C+, C0, C-, D+, D0, D-, F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드로 재수강 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의의 학점으로 학점 관련하여 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적은 강의의 학점과 수강내역의 평점으로 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college_tuit_tb(단과대별 등록금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition_tb(등록금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록금 금액은 college_tuit_tb과 조인하여 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat_tb(휴학/복학)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴학, 복학, 재학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_tb(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar_tb(학사일정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반, 장학, 학사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +628,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222225"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,13 +662,82 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -330,21 +746,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,380 +1083,1370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+      <c r="C42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
+      <c r="C60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E63" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="15">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K75" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="16"/>
+      <c r="C76" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="16"/>
+      <c r="C77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B78" s="16"/>
+      <c r="C78" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K78" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A15:A22"/>
+  <mergeCells count="17">
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="B15:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\웹개발\Academic-management-PJ\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹개발\Academic-management-PJ\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972A6189-C188-4B34-BF92-8E389CBF947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="147">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,13 +604,17 @@
   </si>
   <si>
     <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,18 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,7 +762,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,29 +795,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,12 +1086,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,1331 +1108,1343 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="18" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="5" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="18" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="5" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="5" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5" t="s">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5" t="s">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="1"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="s">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="15" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="14"/>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="15" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="1"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-      <c r="C70" s="5" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="5" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="15">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="5">
         <v>0</v>
       </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="8"/>
+      <c r="C73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="16"/>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="16"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B78" s="16"/>
-      <c r="C78" s="17" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B75:B78"/>
@@ -2437,16 +2452,6 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B15:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,19 +82,480 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>college_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단과대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(1부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_tb(사용자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_tb(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_tb(강의실)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_tb(강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mng_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일 및 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양/전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의계획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여(수강 정원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enroll_tb(수강신청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_tb</t>
+  </si>
+  <si>
+    <t>pk/fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_tb</t>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_tb(등급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+, A0, A-, B+, B0, B-, C+, C0, C-, D+, D0, D-, F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드로 재수강 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의의 학점으로 학점 관련하여 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적은 강의의 학점과 수강내역의 평점으로 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition_tb(등록금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록금 금액은 college_tuit_tb과 조인하여 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴학, 복학, 재학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar_tb(학사일정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반, 장학, 학사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_tb(학생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>college_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>college_tb(단과대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단과대</t>
+    <t>department_tb(학과)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,11 +563,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUTO_INCREMENT(1부터 시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번 혹은 직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(2024000001부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(10부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(1001부터 시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,99 +591,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생(student)인지 관리자(manager)인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dept_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT(100부터 시작, 10단위로 증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT(2024000001부터 시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 기입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 기입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자휴대폰번호</t>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_details_tb(수강내역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,71 +615,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의실 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>college_tb(단과대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_tb(학과)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_tb(사용자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_tb(학생)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager_tb(관리자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_tb(강의실)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_tb(강의)</t>
+    <t>college_tuit_tb(단과대별 등록금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySql에선 이 타입없음 TINYINT(1)으로 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat_tb(휴학/복학)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_tb(공지사항)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,328 +643,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mng_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일 및 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교양/전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의계획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당교수이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_tb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_tb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_tb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>college_tb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔여(수강 정원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enroll_tb(수강신청)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_tb</t>
-  </si>
-  <si>
-    <t>pk/fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_tb</t>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_details_tb(수강내역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_tb(등급)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+, A0, A-, B+, B0, B-, C+, C0, C-, D+, D0, D-, F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_tb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목코드로 재수강 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의의 학점으로 학점 관련하여 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적은 강의의 학점과 수강내역의 평점으로 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>college_tuit_tb(단과대별 등록금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuition_tb(등록금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록금 금액은 college_tuit_tb과 조인하여 가져옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat_tb(휴학/복학)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴학, 복학, 재학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_tb(공지사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calendar_tb(학사일정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>views</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반, 장학, 학사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
+    <t>AUTO_INCREMENT(100부터 시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -743,13 +779,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,16 +820,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,23 +853,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K78"/>
+  <dimension ref="B2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1133,18 +1185,18 @@
         <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
-        <v>57</v>
+      <c r="B3" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1158,16 +1210,16 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1189,14 +1241,14 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>58</v>
+      <c r="B6" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1207,13 +1259,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -1227,9 +1279,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1238,13 +1290,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1260,17 +1312,17 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>59</v>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1278,16 +1330,16 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1296,16 +1348,16 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1314,16 +1366,16 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1332,37 +1384,37 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1376,284 +1428,284 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="16" t="s">
-        <v>89</v>
+      <c r="H17" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1111</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="K31" s="1"/>
     </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1661,39 +1713,37 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1701,17 +1751,17 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1719,17 +1769,17 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1737,37 +1787,39 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1775,17 +1827,17 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1793,57 +1845,39 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
+      <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1851,421 +1885,441 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44" s="1"/>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
-        <v>102</v>
-      </c>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="B49" s="16"/>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
-        <v>101</v>
+      <c r="B52" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="11"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="11"/>
-      <c r="C54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>114</v>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B56" s="17"/>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
-        <v>117</v>
+      <c r="B59" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K60" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
-      <c r="C64" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="7"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K66" s="1"/>
     </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="10"/>
+      <c r="C67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="10"/>
+      <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="8"/>
-      <c r="C69" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2273,185 +2327,107 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="8"/>
-      <c r="C70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K70" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="8"/>
+      <c r="B71" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="8"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="8"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="9"/>
-      <c r="C76" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="9"/>
-      <c r="C77" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B78" s="9"/>
-      <c r="C78" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K78" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B74" s="15"/>
+      <c r="C74" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K74" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -543,107 +543,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_tb(학과)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번 혹은 직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(2024000001부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(1001부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_details_tb(수강내역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college_tuit_tb(단과대별 등록금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySql에선 이 타입없음 TINYINT(1)으로 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat_tb(휴학/복학)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_tb(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(100부터 시작, 10단위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT(1부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>college_tb(단과대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_tb(학과)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번 혹은 직원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT(2024000001부터 시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT(10부터 시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT(1001부터 시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_details_tb(수강내역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>college_tuit_tb(단과대별 등록금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySql에선 이 타입없음 TINYINT(1)으로 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat_tb(휴학/복학)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_tb(공지사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT(100부터 시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,16 +820,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,26 +850,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,8 +1142,8 @@
   <dimension ref="B2:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1192,11 +1192,11 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1210,11 +1210,11 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1241,8 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>132</v>
+      <c r="B6" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1259,11 +1259,11 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>123</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
@@ -1370,12 +1370,12 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1384,7 +1384,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>27</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1514,7 +1514,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>41</v>
@@ -1530,14 +1530,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>38</v>
@@ -1554,7 +1554,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
         <v>128</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="8" t="s">
         <v>72</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1576,7 +1576,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1598,7 +1598,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1660,11 +1660,11 @@
         <v>53</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1738,9 +1738,9 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>50</v>
@@ -1756,7 +1756,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
@@ -1792,9 +1792,9 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>50</v>
@@ -1814,9 +1814,9 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -1832,9 +1832,9 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>76</v>
@@ -1850,7 +1850,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="K43" s="1"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1916,7 +1916,7 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="16" t="s">
-        <v>145</v>
+      <c r="B48" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>37</v>
@@ -1968,9 +1968,9 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>41</v>
@@ -1992,9 +1992,9 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="16"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>84</v>
@@ -2018,8 +2018,8 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="9" t="s">
-        <v>148</v>
+      <c r="B52" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>129</v>
@@ -2044,7 +2044,7 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="K53" s="1"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2088,9 +2088,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>41</v>
@@ -2108,7 +2108,7 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2124,12 +2124,12 @@
         <v>99</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="14" t="s">
-        <v>151</v>
+      <c r="B59" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>37</v>
@@ -2154,9 +2154,9 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>101</v>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="1" t="s">
         <v>104</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="1" t="s">
         <v>105</v>
       </c>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>49</v>
@@ -2334,11 +2334,11 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>41</v>
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="15"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="1" t="s">
         <v>104</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="15"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="1" t="s">
         <v>105</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B74" s="15"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
@@ -2413,13 +2413,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B57"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B29:B40"/>
     <mergeCell ref="B42:B43"/>
@@ -2428,6 +2421,13 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹개발\Academic-management-PJ\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE96CE-93AE-4853-AFD0-007A69FD488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="156">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MySql에선 이 타입없음 TINYINT(1)으로 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,13 +641,17 @@
   </si>
   <si>
     <t>college_tb(단과대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1138,12 +1139,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1194,7 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>130</v>
@@ -1210,7 +1211,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -1259,7 +1260,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -2090,20 +2091,18 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="K56" s="1"/>
     </row>
@@ -2124,12 +2123,12 @@
         <v>99</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>37</v>
@@ -2156,7 +2155,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>101</v>
@@ -2215,7 +2214,7 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>49</v>
@@ -2338,7 +2337,7 @@
         <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>41</v>
@@ -2431,5 +2430,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹개발\Academic-management-PJ\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE96CE-93AE-4853-AFD0-007A69FD488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F693A35B-65CA-49D3-B580-834534D18F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="159">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,18 @@
   </si>
   <si>
     <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강내역과 거의 동일, 필요없는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인된 유저의 학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,8 +768,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -793,13 +811,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,24 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +871,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1186,8 @@
   <dimension ref="B2:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1236,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1215,7 +1258,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1285,7 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1264,7 +1307,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1323,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1356,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1335,7 +1378,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>123</v>
       </c>
@@ -1353,7 +1396,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
@@ -1371,7 +1414,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>135</v>
       </c>
@@ -1389,7 +1432,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1413,7 +1456,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1425,11 +1468,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
         <v>128</v>
       </c>
@@ -1451,7 +1496,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>129</v>
       </c>
@@ -1473,7 +1518,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +1540,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1513,7 +1558,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="1" t="s">
         <v>132</v>
       </c>
@@ -1531,7 +1576,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1555,7 +1600,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>128</v>
       </c>
@@ -1577,7 +1622,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1599,7 +1644,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1666,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1643,7 +1688,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1665,7 +1710,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1728,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1701,7 +1746,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1719,7 +1764,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1739,7 +1784,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
         <v>139</v>
       </c>
@@ -1757,7 +1802,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1775,7 +1820,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
@@ -1793,7 +1838,7 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1" t="s">
         <v>140</v>
       </c>
@@ -1815,7 +1860,7 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1" t="s">
         <v>141</v>
       </c>
@@ -1833,7 +1878,7 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1" t="s">
         <v>142</v>
       </c>
@@ -1851,7 +1896,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1873,7 +1918,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1891,59 +1936,59 @@
       <c r="K43" s="1"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K45" s="1"/>
+      <c r="K45" s="22" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="K46" s="23"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="18" t="s">
         <v>143</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1966,10 +2011,12 @@
       <c r="J48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
@@ -1990,10 +2037,12 @@
       <c r="J49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="13"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="1" t="s">
         <v>145</v>
       </c>
@@ -2019,7 +2068,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2045,7 +2094,7 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2061,7 +2110,7 @@
       <c r="K53" s="1"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2089,7 +2138,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="14"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="1" t="s">
         <v>95</v>
       </c>
@@ -2107,7 +2156,7 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="14"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2127,7 +2176,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2153,7 +2202,7 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="1" t="s">
         <v>149</v>
       </c>
@@ -2173,7 +2222,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="9"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="1" t="s">
         <v>104</v>
       </c>
@@ -2193,7 +2242,7 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="9"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>105</v>
       </c>
@@ -2213,7 +2262,7 @@
       <c r="K62" s="1"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2237,7 +2286,7 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2255,7 +2304,7 @@
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="10"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="1" t="s">
         <v>122</v>
       </c>
@@ -2273,7 +2322,7 @@
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="10"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="1" t="s">
         <v>116</v>
       </c>
@@ -2293,7 +2342,7 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="10"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="1" t="s">
         <v>117</v>
       </c>
@@ -2313,7 +2362,7 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="10"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
@@ -2333,7 +2382,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2357,7 +2406,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="11"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="1" t="s">
         <v>104</v>
       </c>
@@ -2375,7 +2424,7 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="11"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="1" t="s">
         <v>105</v>
       </c>
@@ -2393,7 +2442,7 @@
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B74" s="11"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
@@ -2411,7 +2460,15 @@
       <c r="K74" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B29:B40"/>
     <mergeCell ref="B42:B43"/>
@@ -2420,13 +2477,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/image/테이블 명세서.xlsx
+++ b/image/테이블 명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹개발\Academic-management-PJ\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\웹개발\Academic-management-PJ\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F693A35B-65CA-49D3-B580-834534D18F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E846B97-95B1-4712-A086-EB9798BD4225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="159">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과목명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,6 +637,26 @@
   </si>
   <si>
     <t>로그인된 유저의 학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,17 +830,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,11 +846,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,36 +892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K74"/>
+  <dimension ref="B2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1204,239 +1195,217 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>153</v>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>152</v>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="C11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
-      <c r="C12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
-      <c r="C13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>136</v>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>126</v>
+      <c r="B15" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -1452,11 +1421,11 @@
         <v>27</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,14 +1438,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
@@ -1484,8 +1453,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="7" t="s">
-        <v>72</v>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
@@ -1496,9 +1465,9 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1507,7 +1476,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -1518,7 +1487,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1498,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>30</v>
@@ -1540,7 +1509,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1558,9 +1527,9 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>41</v>
@@ -1571,19 +1540,19 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>38</v>
@@ -1600,9 +1569,9 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>50</v>
@@ -1610,8 +1579,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="8" t="s">
-        <v>72</v>
+      <c r="H24" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>15</v>
@@ -1622,7 +1591,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1644,7 +1613,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1624,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -1666,7 +1635,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1681,16 +1650,16 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>41</v>
@@ -1703,16 +1672,16 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -1723,14 +1692,14 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
@@ -1741,14 +1710,14 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>41</v>
@@ -1759,14 +1728,14 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>41</v>
@@ -1777,16 +1746,16 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="1" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>50</v>
@@ -1797,14 +1766,14 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -1815,57 +1784,49 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1873,37 +1834,57 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K40" s="1"/>
     </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="B42" s="17"/>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1911,423 +1892,407 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="20" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="I47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="J47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46" s="23"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
-      <c r="C49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
-      <c r="C50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="13"/>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
-      <c r="C56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J57" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="15"/>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B59" s="15"/>
       <c r="C59" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="16"/>
-      <c r="C60" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="16"/>
-      <c r="C61" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="16"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K62" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+      <c r="C63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B64" s="9"/>
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K65" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="K64" s="1"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
+      <c r="B66" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K66" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2335,39 +2300,35 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="15"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2375,108 +2336,148 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+      <c r="C70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
-        <v>109</v>
-      </c>
+      <c r="B71" s="10"/>
       <c r="C71" s="1" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="17"/>
-      <c r="C72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
-      <c r="C74" s="6" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B76" s="11"/>
+      <c r="C76" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K76" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B57"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B15:B21"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
